--- a/src/samples/sample_consumption.xlsx
+++ b/src/samples/sample_consumption.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Month</t>
   </si>
   <si>
-    <t>Consumption (kWh)</t>
-  </si>
-  <si>
-    <t>Cost ($)</t>
+    <t>Consumption kWh</t>
+  </si>
+  <si>
+    <t>Cost $</t>
   </si>
   <si>
     <t>January</t>
@@ -58,6 +58,9 @@
     <t>December</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -70,10 +73,7 @@
     <t>1417 Bath Street, 93101</t>
   </si>
   <si>
-    <t>Enter as &lt;street address&gt;, &lt;zip code&gt;</t>
-  </si>
-  <si>
-    <t>Solar Module Capcity (kWh):</t>
+    <t>Solar Module Capcity kWh:</t>
   </si>
   <si>
     <t>0.4 is default but can update if necessary</t>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -96,17 +96,32 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -128,7 +143,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -371,11 +401,11 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>1490.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>130.23</v>
+      <c r="C2" s="4">
+        <v>820.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>155.8</v>
       </c>
     </row>
     <row r="3">
@@ -385,11 +415,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>1236.55</v>
-      </c>
-      <c r="D3" s="4">
-        <v>101.34</v>
+      <c r="C3" s="6">
+        <v>780.0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>148.2</v>
       </c>
     </row>
     <row r="4">
@@ -399,11 +429,11 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
-        <v>1664.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>145.6</v>
+      <c r="C4" s="4">
+        <v>760.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>144.4</v>
       </c>
     </row>
     <row r="5">
@@ -413,11 +443,11 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
-        <v>2294.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>199.29</v>
+      <c r="C5" s="6">
+        <v>740.0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>140.6</v>
       </c>
     </row>
     <row r="6">
@@ -427,11 +457,11 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
-        <v>1938.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>178.62</v>
+      <c r="C6" s="4">
+        <v>740.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>140.6</v>
       </c>
     </row>
     <row r="7">
@@ -441,11 +471,11 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
-        <v>1829.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>169.69</v>
+      <c r="C7" s="6">
+        <v>710.0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>134.9</v>
       </c>
     </row>
     <row r="8">
@@ -455,11 +485,11 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
-        <v>3212.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>220.41</v>
+      <c r="C8" s="4">
+        <v>705.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>133.95</v>
       </c>
     </row>
     <row r="9">
@@ -469,11 +499,11 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
-        <v>2641.0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>178.37</v>
+      <c r="C9" s="6">
+        <v>715.0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>135.85</v>
       </c>
     </row>
     <row r="10">
@@ -483,11 +513,11 @@
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
-        <v>2194.0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>130.65</v>
+      <c r="C10" s="4">
+        <v>710.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>134.9</v>
       </c>
     </row>
     <row r="11">
@@ -497,11 +527,11 @@
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
-        <v>1771.0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>125.62</v>
+      <c r="C11" s="6">
+        <v>702.0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>133.38</v>
       </c>
     </row>
     <row r="12">
@@ -511,11 +541,11 @@
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
-        <v>1678.0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>120.54</v>
+      <c r="C12" s="4">
+        <v>750.0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>142.5</v>
       </c>
     </row>
     <row r="13">
@@ -525,40 +555,51 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
-        <v>1713.23</v>
-      </c>
-      <c r="D13" s="4">
-        <v>135.34</v>
+      <c r="C13" s="6">
+        <v>780.0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>148.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="9">
         <v>0.4</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
     </row>
